--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.furtili\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabiofurtili\Desktop\CalculaCom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9B62E-F7F4-4D9D-B3CD-1E4498032EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45A77D1-2319-46B7-B277-6ADA88420595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6270" yWindow="2895" windowWidth="21360" windowHeight="10080" xr2:uid="{BB4DF8B6-64B6-4061-AEAC-9D80768B63B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB4DF8B6-64B6-4061-AEAC-9D80768B63B5}"/>
   </bookViews>
   <sheets>
     <sheet name="dados" sheetId="1" r:id="rId1"/>
@@ -27,433 +27,433 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
-    <t>C -0010</t>
-  </si>
-  <si>
-    <t>C -0009</t>
-  </si>
-  <si>
-    <t>C -0008</t>
-  </si>
-  <si>
-    <t>C -0007</t>
-  </si>
-  <si>
-    <t>C -0006</t>
-  </si>
-  <si>
-    <t>C -0005</t>
-  </si>
-  <si>
-    <t>C -0004</t>
-  </si>
-  <si>
-    <t>C -0003</t>
-  </si>
-  <si>
-    <t>C -0002</t>
-  </si>
-  <si>
-    <t>C -0001</t>
-  </si>
-  <si>
-    <t>C 0000</t>
-  </si>
-  <si>
-    <t>C 0001</t>
-  </si>
-  <si>
-    <t>C 0002</t>
-  </si>
-  <si>
-    <t>C 0003</t>
-  </si>
-  <si>
-    <t>C 0004</t>
-  </si>
-  <si>
-    <t>C 0005</t>
-  </si>
-  <si>
-    <t>C 0006</t>
-  </si>
-  <si>
-    <t>C 0007</t>
-  </si>
-  <si>
-    <t>C 0008</t>
-  </si>
-  <si>
-    <t>C 0009</t>
-  </si>
-  <si>
-    <t>C 0010</t>
-  </si>
-  <si>
-    <t>C 0011</t>
-  </si>
-  <si>
-    <t>C 0012</t>
-  </si>
-  <si>
-    <t>C 0013</t>
-  </si>
-  <si>
-    <t>C 0014</t>
-  </si>
-  <si>
-    <t>C 0015</t>
-  </si>
-  <si>
-    <t>C 0016</t>
-  </si>
-  <si>
-    <t>C 0017</t>
-  </si>
-  <si>
-    <t>C 0018</t>
-  </si>
-  <si>
-    <t>C 0019</t>
-  </si>
-  <si>
-    <t>C 0020</t>
-  </si>
-  <si>
-    <t>C 0021</t>
-  </si>
-  <si>
-    <t>C 0022</t>
-  </si>
-  <si>
-    <t>C 0023</t>
-  </si>
-  <si>
-    <t>C 0024</t>
-  </si>
-  <si>
-    <t>C 0025</t>
-  </si>
-  <si>
-    <t>C 0026</t>
-  </si>
-  <si>
-    <t>C 0027</t>
-  </si>
-  <si>
-    <t>C 0028</t>
-  </si>
-  <si>
-    <t>C 0029</t>
-  </si>
-  <si>
-    <t>C 0030</t>
-  </si>
-  <si>
-    <t>C 0031</t>
-  </si>
-  <si>
-    <t>C 0032</t>
-  </si>
-  <si>
-    <t>C 0033</t>
-  </si>
-  <si>
-    <t>C 0034</t>
-  </si>
-  <si>
-    <t>C 0035</t>
-  </si>
-  <si>
-    <t>C 0036</t>
-  </si>
-  <si>
-    <t>C 0037</t>
-  </si>
-  <si>
-    <t>C 0038</t>
-  </si>
-  <si>
-    <t>C 0039</t>
-  </si>
-  <si>
-    <t>C 0040</t>
-  </si>
-  <si>
-    <t>C 0041</t>
-  </si>
-  <si>
-    <t>C 0042</t>
-  </si>
-  <si>
-    <t>C 0043</t>
-  </si>
-  <si>
-    <t>C 0044</t>
-  </si>
-  <si>
-    <t>C 0045</t>
-  </si>
-  <si>
-    <t>C 0046</t>
-  </si>
-  <si>
-    <t>C 0047</t>
-  </si>
-  <si>
-    <t>C 0048</t>
-  </si>
-  <si>
-    <t>C 0049</t>
-  </si>
-  <si>
-    <t>C 0050</t>
-  </si>
-  <si>
-    <t>C 0051</t>
-  </si>
-  <si>
-    <t>C 0052</t>
-  </si>
-  <si>
-    <t>C 0053</t>
-  </si>
-  <si>
-    <t>C 0054</t>
-  </si>
-  <si>
-    <t>C 0055</t>
-  </si>
-  <si>
-    <t>C 0056</t>
-  </si>
-  <si>
-    <t>C 0057</t>
-  </si>
-  <si>
-    <t>C 0058</t>
-  </si>
-  <si>
-    <t>C 0059</t>
-  </si>
-  <si>
-    <t>C 0060</t>
-  </si>
-  <si>
-    <t>C 0061</t>
-  </si>
-  <si>
-    <t>C 0062</t>
-  </si>
-  <si>
-    <t>C 0063</t>
-  </si>
-  <si>
-    <t>C 0064</t>
-  </si>
-  <si>
-    <t>C 0065</t>
-  </si>
-  <si>
-    <t>C 0066</t>
-  </si>
-  <si>
-    <t>C 0067</t>
-  </si>
-  <si>
-    <t>C 0068</t>
-  </si>
-  <si>
-    <t>C 0069</t>
-  </si>
-  <si>
-    <t>C 0070</t>
-  </si>
-  <si>
-    <t>C 0071</t>
-  </si>
-  <si>
-    <t>C 0072</t>
-  </si>
-  <si>
-    <t>C 0073</t>
-  </si>
-  <si>
-    <t>C 0074</t>
-  </si>
-  <si>
-    <t>C 0075</t>
-  </si>
-  <si>
-    <t>C 0076</t>
-  </si>
-  <si>
-    <t>C 0077</t>
-  </si>
-  <si>
-    <t>C 0078</t>
-  </si>
-  <si>
-    <t>C 0079</t>
-  </si>
-  <si>
-    <t>C 0080</t>
-  </si>
-  <si>
-    <t>C 0081</t>
-  </si>
-  <si>
-    <t>C 0082</t>
-  </si>
-  <si>
-    <t>C 0083</t>
-  </si>
-  <si>
-    <t>C 0084</t>
-  </si>
-  <si>
-    <t>C 0085</t>
-  </si>
-  <si>
-    <t>C 0086</t>
-  </si>
-  <si>
-    <t>C 0087</t>
-  </si>
-  <si>
-    <t>C 0088</t>
-  </si>
-  <si>
-    <t>C 0089</t>
-  </si>
-  <si>
-    <t>C 0090</t>
-  </si>
-  <si>
-    <t>C 0091</t>
-  </si>
-  <si>
-    <t>C 0092</t>
-  </si>
-  <si>
-    <t>C 0093</t>
-  </si>
-  <si>
-    <t>C 0094</t>
-  </si>
-  <si>
-    <t>C 0095</t>
-  </si>
-  <si>
-    <t>C 0096</t>
-  </si>
-  <si>
-    <t>C 0097</t>
-  </si>
-  <si>
-    <t>C 0098</t>
-  </si>
-  <si>
-    <t>C 0099</t>
-  </si>
-  <si>
-    <t>C 0100</t>
-  </si>
-  <si>
-    <t>C 0101</t>
-  </si>
-  <si>
-    <t>C 0102</t>
-  </si>
-  <si>
-    <t>C 0103</t>
-  </si>
-  <si>
-    <t>C 0104</t>
-  </si>
-  <si>
-    <t>C 0105</t>
-  </si>
-  <si>
-    <t>C 0106</t>
-  </si>
-  <si>
-    <t>C 0107</t>
-  </si>
-  <si>
-    <t>C 0108</t>
-  </si>
-  <si>
-    <t>C 0109</t>
-  </si>
-  <si>
-    <t>C 0110</t>
-  </si>
-  <si>
-    <t>C 0111</t>
-  </si>
-  <si>
-    <t>C 0112</t>
-  </si>
-  <si>
-    <t>C 0113</t>
-  </si>
-  <si>
-    <t>C 0114</t>
-  </si>
-  <si>
-    <t>C 0115</t>
-  </si>
-  <si>
-    <t>C 0116</t>
-  </si>
-  <si>
-    <t>C 0117</t>
-  </si>
-  <si>
-    <t>C 0118</t>
-  </si>
-  <si>
-    <t>C 0119</t>
-  </si>
-  <si>
-    <t>C 0120</t>
-  </si>
-  <si>
-    <t>C 0121</t>
-  </si>
-  <si>
-    <t>C 0122</t>
-  </si>
-  <si>
-    <t>C 0123</t>
-  </si>
-  <si>
-    <t>C 0124</t>
-  </si>
-  <si>
-    <t>C 0125</t>
-  </si>
-  <si>
-    <t>C 0126</t>
-  </si>
-  <si>
-    <t>C 0127</t>
-  </si>
-  <si>
-    <t>C 0128</t>
-  </si>
-  <si>
-    <t>C 0129</t>
-  </si>
-  <si>
-    <t>C 0130</t>
-  </si>
-  <si>
     <t>Fator</t>
   </si>
   <si>
     <t>Lista</t>
+  </si>
+  <si>
+    <t>A -0010</t>
+  </si>
+  <si>
+    <t>A -0009</t>
+  </si>
+  <si>
+    <t>A -0008</t>
+  </si>
+  <si>
+    <t>A -0007</t>
+  </si>
+  <si>
+    <t>A -0006</t>
+  </si>
+  <si>
+    <t>A -0005</t>
+  </si>
+  <si>
+    <t>A -0004</t>
+  </si>
+  <si>
+    <t>A -0003</t>
+  </si>
+  <si>
+    <t>A -0002</t>
+  </si>
+  <si>
+    <t>A -0001</t>
+  </si>
+  <si>
+    <t>A 0000</t>
+  </si>
+  <si>
+    <t>A 0001</t>
+  </si>
+  <si>
+    <t>A 0002</t>
+  </si>
+  <si>
+    <t>A 0003</t>
+  </si>
+  <si>
+    <t>A 0004</t>
+  </si>
+  <si>
+    <t>A 0005</t>
+  </si>
+  <si>
+    <t>A 0006</t>
+  </si>
+  <si>
+    <t>A 0007</t>
+  </si>
+  <si>
+    <t>A 0008</t>
+  </si>
+  <si>
+    <t>A 0009</t>
+  </si>
+  <si>
+    <t>A 0010</t>
+  </si>
+  <si>
+    <t>A 0011</t>
+  </si>
+  <si>
+    <t>A 0012</t>
+  </si>
+  <si>
+    <t>A 0013</t>
+  </si>
+  <si>
+    <t>A 0014</t>
+  </si>
+  <si>
+    <t>A 0015</t>
+  </si>
+  <si>
+    <t>A 0016</t>
+  </si>
+  <si>
+    <t>A 0017</t>
+  </si>
+  <si>
+    <t>A 0018</t>
+  </si>
+  <si>
+    <t>A 0019</t>
+  </si>
+  <si>
+    <t>A 0020</t>
+  </si>
+  <si>
+    <t>A 0021</t>
+  </si>
+  <si>
+    <t>A 0022</t>
+  </si>
+  <si>
+    <t>A 0023</t>
+  </si>
+  <si>
+    <t>A 0024</t>
+  </si>
+  <si>
+    <t>A 0025</t>
+  </si>
+  <si>
+    <t>A 0026</t>
+  </si>
+  <si>
+    <t>A 0027</t>
+  </si>
+  <si>
+    <t>A 0028</t>
+  </si>
+  <si>
+    <t>A 0029</t>
+  </si>
+  <si>
+    <t>A 0030</t>
+  </si>
+  <si>
+    <t>A 0031</t>
+  </si>
+  <si>
+    <t>A 0032</t>
+  </si>
+  <si>
+    <t>A 0033</t>
+  </si>
+  <si>
+    <t>A 0034</t>
+  </si>
+  <si>
+    <t>A 0035</t>
+  </si>
+  <si>
+    <t>A 0036</t>
+  </si>
+  <si>
+    <t>A 0037</t>
+  </si>
+  <si>
+    <t>A 0038</t>
+  </si>
+  <si>
+    <t>A 0039</t>
+  </si>
+  <si>
+    <t>A 0040</t>
+  </si>
+  <si>
+    <t>A 0041</t>
+  </si>
+  <si>
+    <t>A 0042</t>
+  </si>
+  <si>
+    <t>A 0043</t>
+  </si>
+  <si>
+    <t>A 0044</t>
+  </si>
+  <si>
+    <t>A 0045</t>
+  </si>
+  <si>
+    <t>A 0046</t>
+  </si>
+  <si>
+    <t>A 0047</t>
+  </si>
+  <si>
+    <t>A 0048</t>
+  </si>
+  <si>
+    <t>A 0049</t>
+  </si>
+  <si>
+    <t>A 0050</t>
+  </si>
+  <si>
+    <t>A 0051</t>
+  </si>
+  <si>
+    <t>A 0052</t>
+  </si>
+  <si>
+    <t>A 0053</t>
+  </si>
+  <si>
+    <t>A 0054</t>
+  </si>
+  <si>
+    <t>A 0055</t>
+  </si>
+  <si>
+    <t>A 0056</t>
+  </si>
+  <si>
+    <t>A 0057</t>
+  </si>
+  <si>
+    <t>A 0058</t>
+  </si>
+  <si>
+    <t>A 0059</t>
+  </si>
+  <si>
+    <t>A 0060</t>
+  </si>
+  <si>
+    <t>A 0061</t>
+  </si>
+  <si>
+    <t>A 0062</t>
+  </si>
+  <si>
+    <t>A 0063</t>
+  </si>
+  <si>
+    <t>A 0064</t>
+  </si>
+  <si>
+    <t>A 0065</t>
+  </si>
+  <si>
+    <t>A 0066</t>
+  </si>
+  <si>
+    <t>A 0067</t>
+  </si>
+  <si>
+    <t>A 0068</t>
+  </si>
+  <si>
+    <t>A 0069</t>
+  </si>
+  <si>
+    <t>A 0070</t>
+  </si>
+  <si>
+    <t>A 0071</t>
+  </si>
+  <si>
+    <t>A 0072</t>
+  </si>
+  <si>
+    <t>A 0073</t>
+  </si>
+  <si>
+    <t>A 0074</t>
+  </si>
+  <si>
+    <t>A 0075</t>
+  </si>
+  <si>
+    <t>A 0076</t>
+  </si>
+  <si>
+    <t>A 0077</t>
+  </si>
+  <si>
+    <t>A 0078</t>
+  </si>
+  <si>
+    <t>A 0079</t>
+  </si>
+  <si>
+    <t>A 0080</t>
+  </si>
+  <si>
+    <t>A 0081</t>
+  </si>
+  <si>
+    <t>A 0082</t>
+  </si>
+  <si>
+    <t>A 0083</t>
+  </si>
+  <si>
+    <t>A 0084</t>
+  </si>
+  <si>
+    <t>A 0085</t>
+  </si>
+  <si>
+    <t>A 0086</t>
+  </si>
+  <si>
+    <t>A 0087</t>
+  </si>
+  <si>
+    <t>A 0088</t>
+  </si>
+  <si>
+    <t>A 0089</t>
+  </si>
+  <si>
+    <t>A 0090</t>
+  </si>
+  <si>
+    <t>A 0091</t>
+  </si>
+  <si>
+    <t>A 0092</t>
+  </si>
+  <si>
+    <t>A 0093</t>
+  </si>
+  <si>
+    <t>A 0094</t>
+  </si>
+  <si>
+    <t>A 0095</t>
+  </si>
+  <si>
+    <t>A 0096</t>
+  </si>
+  <si>
+    <t>A 0097</t>
+  </si>
+  <si>
+    <t>A 0098</t>
+  </si>
+  <si>
+    <t>A 0099</t>
+  </si>
+  <si>
+    <t>A 0100</t>
+  </si>
+  <si>
+    <t>A 0101</t>
+  </si>
+  <si>
+    <t>A 0102</t>
+  </si>
+  <si>
+    <t>A 0103</t>
+  </si>
+  <si>
+    <t>A 0104</t>
+  </si>
+  <si>
+    <t>A 0105</t>
+  </si>
+  <si>
+    <t>A 0106</t>
+  </si>
+  <si>
+    <t>A 0107</t>
+  </si>
+  <si>
+    <t>A 0108</t>
+  </si>
+  <si>
+    <t>A 0109</t>
+  </si>
+  <si>
+    <t>A 0110</t>
+  </si>
+  <si>
+    <t>A 0111</t>
+  </si>
+  <si>
+    <t>A 0112</t>
+  </si>
+  <si>
+    <t>A 0113</t>
+  </si>
+  <si>
+    <t>A 0114</t>
+  </si>
+  <si>
+    <t>A 0115</t>
+  </si>
+  <si>
+    <t>A 0116</t>
+  </si>
+  <si>
+    <t>A 0117</t>
+  </si>
+  <si>
+    <t>A 0118</t>
+  </si>
+  <si>
+    <t>A 0119</t>
+  </si>
+  <si>
+    <t>A 0120</t>
+  </si>
+  <si>
+    <t>A 0121</t>
+  </si>
+  <si>
+    <t>A 0122</t>
+  </si>
+  <si>
+    <t>A 0123</t>
+  </si>
+  <si>
+    <t>A 0124</t>
+  </si>
+  <si>
+    <t>A 0125</t>
+  </si>
+  <si>
+    <t>A 0126</t>
+  </si>
+  <si>
+    <t>A 0127</t>
+  </si>
+  <si>
+    <t>A 0128</t>
+  </si>
+  <si>
+    <t>A 0129</t>
+  </si>
+  <si>
+    <t>A 0130</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89ECDAF-2A44-4328-B777-C5B6EF523502}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +859,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>0.3</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -878,7 +878,7 @@
         <v>0.30499999999999999</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>0.31</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>0.315</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>0.32</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>0.33</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -934,7 +934,7 @@
         <v>0.34</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>0.34500000000000003</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,7 +950,7 @@
         <v>0.35</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>0.35500000000000004</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>0.36500000000000005</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -982,7 +982,7 @@
         <v>0.37000000000000005</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -990,7 +990,7 @@
         <v>0.37500000000000006</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -998,7 +998,7 @@
         <v>0.38000000000000006</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,7 +1006,7 @@
         <v>0.38500000000000006</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1014,7 +1014,7 @@
         <v>0.39000000000000007</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>0.39500000000000007</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>0.40000000000000008</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,7 +1038,7 @@
         <v>0.40500000000000008</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,7 +1046,7 @@
         <v>0.41000000000000009</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>0.41500000000000009</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>0.4200000000000001</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,7 +1070,7 @@
         <v>0.4250000000000001</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1078,7 +1078,7 @@
         <v>0.4300000000000001</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>0.43500000000000011</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>0.44000000000000011</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>0.44500000000000012</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>0.45000000000000012</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>0.45500000000000013</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
         <v>0.46000000000000013</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1134,7 +1134,7 @@
         <v>0.46500000000000014</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>0.47000000000000014</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>0.47500000000000014</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>0.48000000000000015</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1166,7 +1166,7 @@
         <v>0.48500000000000015</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>0.49000000000000016</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>0.49500000000000016</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>0.50000000000000011</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1198,7 +1198,7 @@
         <v>0.50500000000000012</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>0.51000000000000012</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
         <v>0.51500000000000012</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>0.52000000000000013</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
         <v>0.52500000000000013</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1238,7 +1238,7 @@
         <v>0.53000000000000014</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>0.53500000000000014</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>0.54000000000000015</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1262,7 +1262,7 @@
         <v>0.54500000000000015</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1270,7 +1270,7 @@
         <v>0.55000000000000016</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1278,7 +1278,7 @@
         <v>0.55500000000000016</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>0.56000000000000016</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>0.56500000000000017</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1302,7 @@
         <v>0.57000000000000017</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1310,7 +1310,7 @@
         <v>0.57500000000000018</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>0.58000000000000018</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1326,7 +1326,7 @@
         <v>0.58500000000000019</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>0.59000000000000019</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1342,7 +1342,7 @@
         <v>0.5950000000000002</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>0.6000000000000002</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>0.6050000000000002</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
         <v>0.61000000000000021</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1374,7 +1374,7 @@
         <v>0.61500000000000021</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1382,7 +1382,7 @@
         <v>0.62000000000000022</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>0.62500000000000022</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1398,7 +1398,7 @@
         <v>0.63000000000000023</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1406,7 @@
         <v>0.63500000000000023</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
         <v>0.64000000000000024</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>0.64500000000000024</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>0.65000000000000024</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
         <v>0.65500000000000025</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>0.66000000000000025</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1454,7 +1454,7 @@
         <v>0.66500000000000026</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1462,7 +1462,7 @@
         <v>0.67000000000000026</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1470,7 +1470,7 @@
         <v>0.67500000000000027</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>0.68000000000000027</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1486,7 +1486,7 @@
         <v>0.68500000000000028</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1494,7 +1494,7 @@
         <v>0.69000000000000028</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>0.69500000000000028</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1510,7 +1510,7 @@
         <v>0.70000000000000029</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1518,7 +1518,7 @@
         <v>0.70500000000000029</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>0.7100000000000003</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1534,7 +1534,7 @@
         <v>0.7150000000000003</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>0.72000000000000031</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1550,7 +1550,7 @@
         <v>0.72500000000000031</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>0.73000000000000032</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1566,7 +1566,7 @@
         <v>0.73500000000000032</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>0.74000000000000032</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>0.74500000000000033</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1590,7 +1590,7 @@
         <v>0.75000000000000033</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>0.75500000000000034</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>0.76000000000000034</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1614,7 +1614,7 @@
         <v>0.76500000000000035</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>0.77000000000000035</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>0.77500000000000036</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>0.78000000000000036</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1646,7 +1646,7 @@
         <v>0.78500000000000036</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1654,7 +1654,7 @@
         <v>0.79000000000000037</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1662,7 +1662,7 @@
         <v>0.79500000000000037</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1670,7 +1670,7 @@
         <v>0.80000000000000038</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>0.80500000000000038</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>0.81000000000000039</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1694,7 +1694,7 @@
         <v>0.81500000000000039</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>0.8200000000000004</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>0.8250000000000004</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>0.8300000000000004</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>0.83500000000000041</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>0.84000000000000041</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>0.84500000000000042</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>0.85</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>0.85499999999999998</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>0.86</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>0.86499999999999999</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>0.87</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
         <v>0.875</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
         <v>0.88</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>0.89</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1822,7 @@
         <v>0.89500000000000002</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>0.9</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1846,7 @@
         <v>0.91</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1854,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1862,7 @@
         <v>0.92</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1870,7 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>0.93</v>
       </c>
       <c r="B128" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1886,7 +1886,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="B129" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>0.94000000000000006</v>
       </c>
       <c r="B130" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>0.94500000000000006</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1910,7 @@
         <v>0.95000000000000007</v>
       </c>
       <c r="B132" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>0.95500000000000007</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>0.96000000000000008</v>
       </c>
       <c r="B134" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1934,7 @@
         <v>0.96500000000000008</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>0.97000000000000008</v>
       </c>
       <c r="B136" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>0.97500000000000009</v>
       </c>
       <c r="B137" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>0.98000000000000009</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +1966,7 @@
         <v>0.9850000000000001</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
         <v>0.9900000000000001</v>
       </c>
       <c r="B140" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1982,7 @@
         <v>0.99500000000000011</v>
       </c>
       <c r="B141" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
